--- a/Data/EC/NIT-9008895950.xlsx
+++ b/Data/EC/NIT-9008895950.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9D67E5-A689-4B36-8410-2A74E07F4C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D90016B-8653-45DC-ACB8-AA35B8BA4166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{32CD1E03-C65D-4899-9147-E8B285CE09A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C7646EB3-0739-4660-B3C3-F3D472E9E54C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,226 +71,226 @@
     <t>MARIO YANTEN CORREA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -334,7 +334,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,7 +389,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -402,9 +404,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -604,23 +604,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,10 +648,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,13 +689,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>189350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -704,7 +704,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36264A2C-A946-A3E2-D339-24ABD8647240}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26E90D5-D5B6-6DE2-2F4C-ED71ED62B733}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -726,7 +726,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="680600" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1055,28 +1055,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C1C3CE-1780-4EBF-8603-F8B8000D8BAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FDAB15-91F1-4180-BB8D-4445ACD47485}">
   <dimension ref="B2:J95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -1089,7 +1089,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1100,7 +1100,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1111,7 +1111,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1122,8 +1122,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>86</v>
       </c>
@@ -1138,8 +1138,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1154,8 +1154,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>87</v>
       </c>
@@ -1170,8 +1170,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>88</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>257869</v>
+        <v>351640</v>
       </c>
       <c r="G16" s="18">
         <v>8791000</v>
@@ -1242,7 +1242,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1265,7 +1265,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1909,7 +1909,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2185,7 +2185,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2208,7 +2208,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2300,7 +2300,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2415,7 +2415,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2553,7 +2553,7 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2691,7 +2691,7 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="21" t="s">
         <v>8</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>84</v>
       </c>
       <c r="F89" s="24">
-        <v>351640</v>
+        <v>257869</v>
       </c>
       <c r="G89" s="24">
         <v>8791000</v>
@@ -2921,7 +2921,7 @@
       <c r="I89" s="25"/>
       <c r="J89" s="26"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="32" t="s">
         <v>94</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="32" t="s">
         <v>93</v>
       </c>

--- a/Data/EC/NIT-9008895950.xlsx
+++ b/Data/EC/NIT-9008895950.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D90016B-8653-45DC-ACB8-AA35B8BA4166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34563EF8-68F7-41AF-BE0F-DCF0132D23C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C7646EB3-0739-4660-B3C3-F3D472E9E54C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B359E7FE-7EEB-4A3A-B527-90E0680F5038}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,9 +389,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -404,7 +402,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -598,29 +598,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,19 +639,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,13 +695,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>426600</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>189350</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -704,7 +710,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26E90D5-D5B6-6DE2-2F4C-ED71ED62B733}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDEF0F78-7EEC-4C38-733F-AB10430F8371}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -726,7 +732,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680600" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1055,80 +1061,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FDAB15-91F1-4180-BB8D-4445ACD47485}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF00A01-A5BA-4EAE-A2EA-1B8375E2F39E}">
   <dimension ref="B2:J95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1138,13 +1144,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9008895950</v>
       </c>
@@ -1154,13 +1160,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>25927589</v>
       </c>
@@ -1170,8 +1176,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>88</v>
       </c>
@@ -1190,7 +1196,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1229,20 +1235,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G16" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="F16" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G16" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1252,20 +1258,20 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G17" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="F17" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G17" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1275,20 +1281,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G18" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="F18" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G18" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1298,20 +1304,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G19" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="F19" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G19" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1321,20 +1327,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G20" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="F20" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G20" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1344,20 +1350,20 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G21" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="F21" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G21" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1367,20 +1373,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G22" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="F22" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G22" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1390,20 +1396,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G23" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="F23" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G23" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1413,20 +1419,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G24" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G24" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1436,20 +1442,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G25" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G25" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1459,20 +1465,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G26" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G26" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1482,20 +1488,20 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G27" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G27" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1505,20 +1511,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G28" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G28" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1528,20 +1534,20 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G29" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G29" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1551,20 +1557,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G30" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G30" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1574,20 +1580,20 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G31" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G31" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1597,20 +1603,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G32" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G32" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1620,20 +1626,20 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G33" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G33" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1643,20 +1649,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G34" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G34" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1666,20 +1672,20 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G35" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G35" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1689,20 +1695,20 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G36" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G36" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1712,20 +1718,20 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G37" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G37" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1735,20 +1741,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G38" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G38" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1758,20 +1764,20 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G39" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G39" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1781,20 +1787,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G40" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G40" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1804,20 +1810,20 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G41" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G41" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1827,20 +1833,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G42" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G42" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1850,20 +1856,20 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G43" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="F43" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G43" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1873,20 +1879,20 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G44" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="F44" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G44" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1896,20 +1902,20 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G45" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G45" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1919,20 +1925,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G46" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G46" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1942,20 +1948,20 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G47" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="F47" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G47" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1965,20 +1971,20 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G48" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="F48" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G48" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1988,20 +1994,20 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G49" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="F49" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G49" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2011,20 +2017,20 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G50" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="F50" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G50" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2034,20 +2040,20 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G51" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="F51" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G51" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2057,20 +2063,20 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G52" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="F52" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G52" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2080,20 +2086,20 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G53" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="F53" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G53" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2103,20 +2109,20 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G54" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="F54" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G54" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2126,20 +2132,20 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G55" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="F55" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G55" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2149,20 +2155,20 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G56" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="F56" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G56" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2172,20 +2178,20 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G57" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="F57" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G57" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2195,20 +2201,20 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G58" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="F58" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G58" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2218,20 +2224,20 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G59" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="F59" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G59" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2241,20 +2247,20 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G60" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="F60" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G60" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2264,20 +2270,20 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G61" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="F61" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G61" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2287,20 +2293,20 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F62" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G62" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="F62" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G62" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2310,20 +2316,20 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G63" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="F63" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G63" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2333,20 +2339,20 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G64" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="F64" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G64" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2356,20 +2362,20 @@
       <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G65" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="F65" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G65" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2379,20 +2385,20 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G66" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="F66" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G66" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2402,20 +2408,20 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F67" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G67" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="F67" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G67" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2425,20 +2431,20 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G68" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="F68" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G68" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2448,20 +2454,20 @@
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G69" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="F69" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G69" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2471,20 +2477,20 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G70" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="F70" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G70" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2494,20 +2500,20 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G71" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="F71" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G71" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2517,20 +2523,20 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G72" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="F72" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G72" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2540,20 +2546,20 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F73" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G73" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10">
+      <c r="F73" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G73" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2563,20 +2569,20 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F74" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G74" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10">
+      <c r="F74" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G74" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2586,20 +2592,20 @@
       <c r="D75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F75" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G75" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10">
+      <c r="F75" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G75" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2609,20 +2615,20 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F76" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G76" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10">
+      <c r="F76" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G76" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2632,20 +2638,20 @@
       <c r="D77" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F77" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G77" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10">
+      <c r="F77" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G77" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2655,20 +2661,20 @@
       <c r="D78" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F78" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G78" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10">
+      <c r="F78" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G78" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2678,20 +2684,20 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F79" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G79" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10">
+      <c r="F79" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G79" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2701,20 +2707,20 @@
       <c r="D80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F80" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G80" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="F80" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G80" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2724,20 +2730,20 @@
       <c r="D81" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F81" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G81" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10">
+      <c r="F81" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G81" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2747,20 +2753,20 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F82" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G82" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10">
+      <c r="F82" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G82" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2770,20 +2776,20 @@
       <c r="D83" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F83" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G83" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10">
+      <c r="F83" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G83" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2793,20 +2799,20 @@
       <c r="D84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F84" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G84" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10">
+      <c r="F84" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G84" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2816,20 +2822,20 @@
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F85" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G85" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10">
+      <c r="F85" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G85" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2839,20 +2845,20 @@
       <c r="D86" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F86" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G86" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10">
+      <c r="F86" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G86" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2862,20 +2868,20 @@
       <c r="D87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F87" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G87" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10">
+      <c r="F87" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G87" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2885,58 +2891,58 @@
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F88" s="18">
-        <v>351640</v>
-      </c>
-      <c r="G88" s="18">
-        <v>8791000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="22" t="s">
+      <c r="F88" s="19">
+        <v>351640</v>
+      </c>
+      <c r="G88" s="19">
+        <v>8791000</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F89" s="24">
+      <c r="F89" s="26">
         <v>257869</v>
       </c>
-      <c r="G89" s="24">
-        <v>8791000</v>
-      </c>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="26"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="32" t="s">
+      <c r="G89" s="26">
+        <v>8791000</v>
+      </c>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="28"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="32"/>
+      <c r="C94" s="34"/>
       <c r="H94" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="32" t="s">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="32"/>
+      <c r="C95" s="34"/>
       <c r="H95" s="1" t="s">
         <v>95</v>
       </c>
